--- a/Testing/IMU data/wave1.xlsx
+++ b/Testing/IMU data/wave1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9510 i9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tris/Documents/2022UCT/2nd sem/3097/SHARC_buoy_data_transmission/Testing/IMU data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D42FD4B-894D-44A9-8961-ADE369593D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEFD9B9-DB62-B248-B915-875D081AEEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="18180" windowHeight="11664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,6 +572,3479 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Gyrometer Wave Test Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13250451747053457"/>
+          <c:y val="0.14875667617360105"/>
+          <c:w val="0.79283605706822624"/>
+          <c:h val="0.64584805960626757"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="21000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>Trend</c:name>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>wave1!$D$2:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-26.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-27.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-137.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-216.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-133.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>328.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-193.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-66.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-228.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-128.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.07</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>124.18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>218.72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-74.58</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>479.42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-154.21</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.74</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-9.65</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-69.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-21.71</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-42.24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22.69</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.37</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47AD-4944-9381-4AB23ADB40B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>wave1!$E$2:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>-19.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-42.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-51.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-30.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-230.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-61.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>179.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-34.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-27.11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-90.24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-323.44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-174.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-34.64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-20.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-36.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15.33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-20.92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-21.39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-13.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-60.17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-37.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-19.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71.11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-303.63</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-262.93</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-500.27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-185.69</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-20.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-16.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-21.07</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.84</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-31.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-21.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-23.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-31.56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-20.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-18.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-24.66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-29.45</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-12.55</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-22.66</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-18.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-20.73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-21.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-19.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47AD-4944-9381-4AB23ADB40B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                  <a:alpha val="44800"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>wave1!$F$2:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>-1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-38.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-24.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-25.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-83.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-57.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.11542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-107.372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.672000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-20.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-37.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201.56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.216000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-106.76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-31.22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6521999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.992</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.09</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-22.23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-13.33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>110.49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.378999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95.828999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>500.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.2150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-23.73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-11.27</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-16.29</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-6.7328999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.9529000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38.529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.4489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.0790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-7.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.9089999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-47AD-4944-9381-4AB23ADB40B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74865040"/>
+        <c:axId val="2115925999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74865040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (100ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115925999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2115925999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Angular</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Velocity (dps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74865040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29698298568523424"/>
+          <c:y val="0.87024487462532885"/>
+          <c:w val="0.45812935968209728"/>
+          <c:h val="0.11023243033249003"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accelorometer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Wave Test Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>wave1!$A$2:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED61-A141-B6AC-7C77D96F1704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="27000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>wave1!$B$2:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>-0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED61-A141-B6AC-7C77D96F1704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                  <a:alpha val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>Trend</c:name>
+            <c:spPr>
+              <a:ln w="41275" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="8"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>wave1!$C$2:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ED61-A141-B6AC-7C77D96F1704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1853121295"/>
+        <c:axId val="1853384799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1853121295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (100ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853384799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1853384799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Accelororation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (m/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853121295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27410</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100503</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D758391-9AC8-95B5-6BA9-7A04CEFD0F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27410</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13069D2E-5B28-6944-C49F-8DCBAC2084E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -858,1356 +4341,1377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0.46</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>-0.84</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>-0.76</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>13.13</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>-19.71</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>-1.1299999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0.45</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-0.8</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-0.75</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>11.34</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-24.79</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>0.48</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-0.86</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-0.71</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>12.79</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>-18.03</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>0.44</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-0.74</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-0.63</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>17.010000000000002</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>-42.35</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>0.51</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-0.85</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-0.7</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>14.08</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>39.07</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-38.229999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>0.39</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-0.76</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-0.44</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>11.51</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6.11</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-24.26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>0.44</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-0.62</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-0.25</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>47.54</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-51.3</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>32.380000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>0.34</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>-0.66</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-0.47</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-26.78</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2.11</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>3.8580000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>0.38</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-0.7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-0.5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-27.37</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-30.82</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-1.53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>0.45</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-0.59</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-0.33</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>18.809999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-12.82</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-25.51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>0.22</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.01</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>62.12</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-13.34</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>15.981</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>-0.32</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-0.11</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0.03</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-11.15</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-3.51</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>-0.74</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>34.869999999999997</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>29.13</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>-83.24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>0.27</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>-0.89</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-0.64</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>-137.34</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>-230.66</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>21.02</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>0.2</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0.32</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>-0.27</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>121.92</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>-61.82</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>-57.542000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>0.49</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>0.1</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>-0.65</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>-5.79</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>12.23</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>64.11542</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>0.71</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>-0.78</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0.02</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>-216.38</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>179.85</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>13.332000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>0.81</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.12</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.61</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>37.24</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>-34.89</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>-107.372</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>-0.03</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>-0.39</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>-0.17</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>-9.42</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>8.9</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>10.052</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>0.09</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>-0.45</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>-0.22</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>-8.23</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>-5.94</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>-7.1619999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>0.01</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>-0.63</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>-0.19</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>22.26</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>-27.11</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>18.672000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>-0.87</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0.36</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>-133.25</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>107.85</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>-20.76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>-0.27</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>-0.75</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>-0.77</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>33.74</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>-90.24</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>-37.369999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>-0.8</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0.22</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>0.65</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>328.72</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>-323.44</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>201.56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>-0.21</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>0.24</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>0.59</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>72.150000000000006</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>-174.03</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>45.216000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>-0.04</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>-0.75</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>84.17</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>-5.25</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>-5.4059999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>-0.35</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>0.85</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>0.02</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>-193.71</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>15.34</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>16.635999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>0.27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>-1.54</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>0.66</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>-66.87</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>52.98</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>-106.76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.34</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>-0.21</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-0.09</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>-228.85</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>-34.64</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>-6.46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>0.12</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>-0.5</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>-0.66</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>-128.31</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>-17.510000000000002</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>34.79</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>0.06</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>-0.82</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>-0.34</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>49.39</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>-20.2</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>-31.22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>0.15</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>-0.88</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>-0.06</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>28.34</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>12.6</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>1.6521999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>0.11</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>-0.61</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>0.04</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>41.39</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>-11.95</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>-7.8019999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>0.06</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>-0.67</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>-0.18</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>12.98</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>-36.43</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>1.022</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>-0.76</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>1.3</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>-20.149999999999999</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>-4.992</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>0.1</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>-0.6</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>-0.17</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>11.85</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>-15.33</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>0.12</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>-0.61</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>-0.19</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>-3.07</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>-20.92</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>-6.02</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>0.09</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>-0.65</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>-0.24</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>5.33</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>-21.39</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>0.06</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>-0.61</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>-0.21</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>22.38</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>-13.08</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>-2.09</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>0.5</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>-0.66</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>0.52</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>-0.99</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>-60.17</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>-22.23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>0.39</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>-0.27</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>-0.31</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>2.7</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>-37.4</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>-13.33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>-0.35</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>-3.3</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>-19.3</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>1.95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>-0.27</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>0.26</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>1.28</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>69.569999999999993</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>71.11</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>24.44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>-0.82</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>0.19</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>124.18</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>177.8</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>21.68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>0.43</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>-0.6</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>-0.7</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>218.72</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>-303.63</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>110.49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>0.15</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>0.1</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>-1.25</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>-74.58</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>-262.93</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>46.378999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>0.23</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>-1.33</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>479.42</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>-500.27</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>95.828999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>-1.4</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>0.82</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>-0.53</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>-154.21</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>-185.69</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>500.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>0.02</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>0.36</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>-0.05</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>21.33</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>-20.85</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>-5.27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>0.04</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0.4</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>19.98</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>-16.170000000000002</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>-8.41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>-0.01</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>0.5</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>-0.06</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>22.99</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>-21.07</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>0.02</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>0.43</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>-0.1</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>0.66</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>-8.84</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>-1.2150000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>-0.05</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>0.37</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>-0.23</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>-3.74</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>-31.5</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>11.22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>0</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>0.51</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>0</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>6.23</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>-21.25</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>-2.0019999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>0.01</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>0.42</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>-0.1</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>-9.65</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>-23.3</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>-1.37</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>-0.01</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>0.22</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>-0.04</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>-69.239999999999995</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>-5.74</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>-23.73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>0.01</v>
-      </c>
-      <c r="B57">
-        <v>-0.09</v>
-      </c>
-      <c r="C57">
-        <v>-0.05</v>
-      </c>
-      <c r="D57">
-        <v>-21.71</v>
-      </c>
-      <c r="E57">
-        <v>-31.56</v>
-      </c>
-      <c r="F57">
-        <v>-11.27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.01</v>
       </c>
       <c r="B58">
+        <v>-0.09</v>
+      </c>
+      <c r="C58">
+        <v>-0.05</v>
+      </c>
+      <c r="D58">
+        <v>-21.71</v>
+      </c>
+      <c r="E58">
+        <v>-31.56</v>
+      </c>
+      <c r="F58">
+        <v>-11.27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.01</v>
+      </c>
+      <c r="B59">
         <v>-0.11</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>0.03</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>-42.24</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>-20.260000000000002</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>-16.29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>0.03</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>0.05</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>0.02</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>22.69</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>-18.239999999999998</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>-6.7328999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>0.04</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>0.01</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>-0.06</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>16.27</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <v>-24.66</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>3.9529000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>0.03</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>0.24</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>-0.03</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>59.37</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>-29.45</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>38.529000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>0.06</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>2.95</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>-12.55</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>-2.4489999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>0.11</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>-0.08</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>3.21</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>-22.66</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>-1.2290000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>0.09</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>0.34</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>-0.09</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>9.69</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>-18.850000000000001</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>-3.0790000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>0.08</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>0.31</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>-0.08</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>6.85</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>-20.73</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>-7.1989999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>0.1</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>-0.1</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>-21.1</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>0.09</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>-0.09</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>5.63</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>-19.04</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>-2.9089999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>